--- a/biology/Zoologie/Garrano/Garrano.xlsx
+++ b/biology/Zoologie/Garrano/Garrano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Garrano (portugais : Garrano) est une race de poneys d'allures, originaire des montagnes du Nord-ouest du Portugal. Rattaché au groupe des poneys du Nord de la Péninsule Ibérique, il est localement monté, bâté ou encore attelé. 
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude espagnole le rattache au tronc des races de chevaux dites Cantabriques-pyrénéennes (cántabro-pirenaico)[1], ce qui l'apparente à l'Asturcón, à la Jaca Navarra, au Mérens et au Pottok[2]. 
-Un premier plan de sauvegarde est mis en place durant les années 1970[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude espagnole le rattache au tronc des races de chevaux dites Cantabriques-pyrénéennes (cántabro-pirenaico), ce qui l'apparente à l'Asturcón, à la Jaca Navarra, au Mérens et au Pottok. 
+Un premier plan de sauvegarde est mis en place durant les années 1970. 
 Cette race très ancienne vit toujours en semi-liberté (les chevaux sont laissés toute l'année en montagne) dans le parc national de Peneda-Geres. Le Garrano doit son nom à une région au Nord du Portugal, le Minho, dont il est originaire. Cette race serait l’ancêtre de l’Andalou et du Galicien. Le Garrano a influencé d’autres races et a subi l'influence de l'Arabe, perdant ses caractéristiques originelles.
-La race dispose d'un stud-book[4].
+La race dispose d'un stud-book.
 </t>
         </is>
       </c>
@@ -547,14 +561,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est rattaché au groupe des poneys du Nord de la péninsule ibérique[5]. D'après CAB International, il toise de 1,22 m à 1,42 m[5]. La base de données DAD-IS cite une fourchette plus réduite, de 1,20 m à 1,28 m, pour un poids de 300 à 350 kg[4].
-Le Garrano présente le profil de tête typique du poney celte, en forme de « S » aplati, dit « profil romain »[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est rattaché au groupe des poneys du Nord de la péninsule ibérique. D'après CAB International, il toise de 1,22 m à 1,42 m. La base de données DAD-IS cite une fourchette plus réduite, de 1,20 m à 1,28 m, pour un poids de 300 à 350 kg.
+Le Garrano présente le profil de tête typique du poney celte, en forme de « S » aplati, dit « profil romain ».
 C'est un poney docile et intelligent. 
-La robe est de couleur sombre[5]. Elle est généralement baie, mais environ 30 % des poneys sont porteurs de l'allèle récessif codant la robe alezane[6].
-Le Garrano a naturellement des allures supplémentaires[5]. Il est tout particulièrement adapté aux régions montagneuses[4].
-La sélection et la gestion de la race sont assurées par le Serviço nacional Condélico and Associação Nacional de Criadores de Cavalos Raça Garrano[4].
+La robe est de couleur sombre. Elle est généralement baie, mais environ 30 % des poneys sont porteurs de l'allèle récessif codant la robe alezane.
+Le Garrano a naturellement des allures supplémentaires. Il est tout particulièrement adapté aux régions montagneuses.
+La sélection et la gestion de la race sont assurées par le Serviço nacional Condélico and Associação Nacional de Criadores de Cavalos Raça Garrano.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces poneys sont montés, bâtés[5], et attelés[4]. Ils sont appréciés pour le travail à la ferme. Ils sont généralement utilisés dans les courses traditionnelles annuelles appelées Corridas de passo travado à Ponte de Lima, au Portugal.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces poneys sont montés, bâtés, et attelés. Ils sont appréciés pour le travail à la ferme. Ils sont généralement utilisés dans les courses traditionnelles annuelles appelées Corridas de passo travado à Ponte de Lima, au Portugal.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Garrano est signalé comme une race rare (2018), native du Portugal, propre plus précisément aux régions montagneuses du Nord-Ouest de ce pays[4]. En 2017, la population se situe autour des 4 000 individus, avec une tendance à la hausse[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Garrano est signalé comme une race rare (2018), native du Portugal, propre plus précisément aux régions montagneuses du Nord-Ouest de ce pays. En 2017, la population se situe autour des 4 000 individus, avec une tendance à la hausse.
 </t>
         </is>
       </c>
